--- a/Registros-Armas.xlsx
+++ b/Registros-Armas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manda\OneDrive\Documents\GitHub\Desarmamento-Brasil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5A2E15-D7C2-4CF0-8431-0A8A66E8311B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D500D33-2EEF-4D2B-9DEB-0C7C7FC5A87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1320095B-D7FE-449A-A809-F7FBAD7F93F4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>Ano</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>de 2001 a 2007 politica de desarmamento estado de SP</t>
+  </si>
+  <si>
+    <t>reducao de homicidios em SP de 60% desde 2001</t>
+  </si>
+  <si>
+    <t>Relatório Anual PF https://www.gov.br/pf/pt-br/acesso-a-informacao/acoes-e-programas/relatorio-anual-pf/RA%202002.ppt</t>
   </si>
 </sst>
 </file>
@@ -442,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F07C890-3A39-4744-BE9D-66AECF753DA7}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,6 +565,9 @@
       <c r="D6">
         <v>637972</v>
       </c>
+      <c r="E6">
+        <v>14024</v>
+      </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
@@ -570,6 +579,9 @@
       <c r="B7">
         <v>2016</v>
       </c>
+      <c r="E7">
+        <v>20575</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -581,6 +593,9 @@
       <c r="C8">
         <v>36807</v>
       </c>
+      <c r="E8">
+        <v>7215</v>
+      </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
@@ -595,6 +610,9 @@
       <c r="C9">
         <v>24534</v>
       </c>
+      <c r="E9">
+        <v>5132</v>
+      </c>
       <c r="F9" t="s">
         <v>5</v>
       </c>
@@ -606,6 +624,9 @@
       <c r="C10">
         <v>19947</v>
       </c>
+      <c r="E10">
+        <v>7360</v>
+      </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
@@ -684,6 +705,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
       <c r="B16">
         <v>2007</v>
       </c>
@@ -750,6 +774,12 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2002</v>
+      </c>
+      <c r="D21">
+        <v>4658000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
